--- a/数据整理/stocks/A股/创业板/300745-欣锐科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300745-欣锐科技.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -697,7 +698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,17 +709,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -728,13 +749,179 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>38.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300745-欣锐科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300745-欣锐科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -868,7 +869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,17 +880,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -899,14 +920,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.25</v>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -915,13 +958,347 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300745-欣锐科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300745-欣锐科技.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007251</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发睿享稳健增利混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.77</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>39.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4865</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>013141</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中信保诚弘远混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>27.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>28.25</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3660</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -580,112 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011800</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>申万菱信价值精选混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1530</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010447</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中邮未来成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0922</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010448</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中邮未来成长混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.14</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
+      <c r="D4" t="n">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>
@@ -694,6 +532,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -863,13 +1061,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,36 +1118,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>007251</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>广发睿享稳健增利混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>35.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>39.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1245</t>
+          <t>0.4865</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -958,36 +1156,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006234</t>
+          <t>013141</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合C</t>
+          <t>中信保诚弘远混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>27.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0664</t>
+          <t>0.3660</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -996,36 +1194,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>310368</t>
+          <t>011800</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信竞争优势混合</t>
+          <t>申万菱信价值精选混合型证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>87.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0434</t>
+          <t>0.1530</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1034,36 +1232,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007251</t>
+          <t>010447</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发睿享稳健增利混合</t>
+          <t>中邮未来成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>38.85</t>
+          <t>88.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0208</t>
+          <t>0.0922</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1072,234 +1270,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011702</t>
+          <t>010448</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发睿享稳健增利混合C</t>
+          <t>中邮未来成长混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>38.85</t>
+          <t>88.14</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>013489</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发东财大数据精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002802</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发东财大数据精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>015173</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300745-欣锐科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300745-欣锐科技.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -532,6 +549,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -891,7 +1116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1061,7 +1286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300745-欣锐科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300745-欣锐科技.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>014317</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>广发价值领航一年持有混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1771</t>
+          <t>0.1020</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006234</t>
+          <t>011351</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合C</t>
+          <t>金鹰年年邮益一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>39.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0644</t>
+          <t>0.0283</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -681,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009258</t>
+          <t>014318</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合C</t>
+          <t>广发价值领航一年持有混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>93.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0589</t>
+          <t>0.0276</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -719,36 +736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006233</t>
+          <t>011352</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>万家汽车新趋势混合A</t>
+          <t>金鹰年年邮益一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>39.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0558</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -757,6 +774,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1116,7 +1341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1286,7 +1511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
